--- a/test/test_singlezone/steady_03/正解値.xlsx
+++ b/test/test_singlezone/steady_03/正解値.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFAA681-8706-4C43-804C-A5F3DBDD3497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88583C7-4A2F-4C14-BF41-9E0D1910848E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="正解値" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -66,18 +66,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W/(㎡･K)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>面積</t>
     <rPh sb="0" eb="2">
       <t>メンセキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>㎡</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -91,10 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>㎡･K/W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>屋外側表面熱伝達抵抗</t>
     <rPh sb="0" eb="3">
       <t>オクガイガワ</t>
@@ -134,39 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熱貫流率</t>
-    <rPh sb="0" eb="1">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツラヌ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木材12mm</t>
-    <rPh sb="0" eb="2">
-      <t>モクザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Python計算結果</t>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>室温</t>
     <rPh sb="0" eb="2">
       <t>シツオン</t>
@@ -303,14 +258,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>放射熱伝達率</t>
-    <rPh sb="0" eb="2">
-      <t>ホウシャ</t>
+    <t>表面熱流</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウメン</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>アツ</t>
     </rPh>
     <rPh sb="3" eb="4">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放射熱伝達率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>ツタ</t>
     </rPh>
     <rPh sb="4" eb="5">
@@ -322,30 +290,299 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>℃</t>
+  </si>
+  <si>
+    <t>㎡･K/W</t>
+  </si>
+  <si>
+    <t>W/(㎡･K)</t>
+  </si>
+  <si>
+    <t>㎡</t>
+  </si>
+  <si>
+    <t>熱貫流率（表面熱伝達率対流）</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツラヌ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ネツデンタツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均放射温度</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作用温度</t>
+    <rPh sb="0" eb="4">
+      <t>サヨウオンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相当外気温度</t>
+    <rPh sb="0" eb="2">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>表面熱流</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウメン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W/㎡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表面熱流（対流）</t>
+    <rPh sb="5" eb="7">
+      <t>タイリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表面熱流（放射）</t>
+    <rPh sb="5" eb="7">
+      <t>ホウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部発熱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対流熱損失</t>
+    <rPh sb="0" eb="2">
+      <t>タイリュウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>アツ</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="3" eb="5">
+      <t>ソンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屋根</t>
+    <rPh sb="0" eb="2">
+      <t>ヤネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>室温、表面温度、表面熱流を比較する。</t>
+    <rPh sb="0" eb="2">
+      <t>シツオン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>リュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投入熱量</t>
-    <rPh sb="0" eb="2">
-      <t>トウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネツリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>室内側対流熱伝達</t>
+    <rPh sb="13" eb="15">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>室空気からの対流熱損失は、室空気と表面温度の温度差、対流熱伝達率より求める。</t>
+    <rPh sb="13" eb="14">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒョウメンオン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対流熱伝達率、放射熱伝達率はそれぞれ、Pythonプログラムでの計算結果を使用する。</t>
+    <rPh sb="7" eb="9">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収束計算の過程において、室空気からの対流熱損失が、内部発熱の設定と差がある場合、（内部発熱ー対流熱損失）/Q値を室温に加算。その際のQ値は室内側表面熱伝達率は対流のみを考慮。</t>
+    <rPh sb="0" eb="4">
+      <t>シュウソクケイサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ウチブハツアツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハツネツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ソンシツ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シツオン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>シツウチガワ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>タツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>室内側表面温度は、相当外気温度、室内側作用温度、屋外から室内までの熱抵抗、屋外から室内側表面までの熱抵抗より求める。</t>
     <rPh sb="0" eb="1">
       <t>シツ</t>
     </rPh>
@@ -355,77 +592,255 @@
     <rPh sb="2" eb="3">
       <t>ガワ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイリュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツタ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>等価温度</t>
-    <rPh sb="0" eb="2">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="3" eb="7">
+      <t>ヒョウメンオンド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>オンド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オクガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オクガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作用温度は、室空気温度、平均放射温度、対流熱伝達率、放射熱伝達率より求める。</t>
+    <rPh sb="0" eb="2">
+      <t>サヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタタ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熱量</t>
-  </si>
-  <si>
-    <t>室温・MRT・作用温度の関係（人体側の対流・放射熱伝達率）</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="6" eb="7">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>クウキオンド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均放射温度は、当該壁体以外の壁体の面積加重平均温度とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘキタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘキタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屋根と床が合板12mm、壁が複層ガラスの1m角の立方体の単室モデル。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゴウハン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>リッポウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒトエ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>室空気からの対流熱損失が内部発熱と一致するよう収束計算を行い、室温等を決定する。</t>
+    <rPh sb="0" eb="1">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
       <t>シツオン</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>サヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オンド</t>
+    <rPh sb="33" eb="34">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算条件</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部発熱一定。</t>
+    <rPh sb="0" eb="4">
+      <t>ウチブハツアツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外気温度一定。日射、夜間放射は考慮なし。</t>
+    <rPh sb="0" eb="4">
+      <t>ガイキオンド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤカン</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイリュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
       <t>ホウシャ</t>
     </rPh>
-    <rPh sb="24" eb="28">
-      <t>ネツデンタツリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PMV算出</t>
+    <rPh sb="15" eb="17">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト項目</t>
     <rPh sb="3" eb="5">
-      <t>サンシュツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シュツ</t>
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算方法</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -459,7 +874,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -482,13 +897,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,7 +956,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,295 +1288,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="19" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUMPRODUCT($O$20:$O$25,$P$20:$P$25)</f>
+        <v>13.725301027105479</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="H20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="1">
+        <f>$D$19</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" ref="J20:J22" si="0">1/4.65-SUM($M20,$N20)</f>
+        <v>6.5053763440860057E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.0410886515065001</v>
+      </c>
+      <c r="L20" s="1">
+        <v>6.0498204394025796</v>
+      </c>
+      <c r="M20" s="1">
+        <f>1/SUM($K20,$L20)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O20" s="1">
+        <f>1/(1/$K20+$J20+$N20)</f>
+        <v>2.304766805120797</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <f ca="1">$I20+($S20-$I20)*SUM($N20,$J20)/SUM($N20,$J20,$M20)</f>
+        <v>1.7787023335718357</v>
+      </c>
+      <c r="R20" s="6">
+        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P20*$Q20)/(SUM($P$20:$P$25)-$P20)</f>
+        <v>1.8095369409782438</v>
+      </c>
+      <c r="S20" s="1">
+        <f ca="1">($D$23*$K20+$R20*$L20)/SUM($K20,$L20)</f>
+        <v>3.6411511434428627</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:T25" ca="1" si="1">($D$23-$Q20)*$K20</f>
+        <v>16.744808978881071</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U23" ca="1" si="2">($R20-$Q20)*$L20</f>
+        <v>0.18654383812824182</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20:V24" ca="1" si="3">SUM($T20,$U20)</f>
+        <v>16.931352817009312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="H21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:I25" si="4">$D$19</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5053763440860057E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3.0410886515065001</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6.0498204394025796</v>
+      </c>
+      <c r="M21" s="1">
+        <f>1/SUM($K21,$L21)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" ref="O21:O25" si="5">1/(1/$K21+$J21+$N21)</f>
+        <v>2.304766805120797</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <f ca="1">$I21+($S21-$I21)*SUM($N21,$J21)/SUM($N21,$J21,$M21)</f>
+        <v>1.7787023335718357</v>
+      </c>
+      <c r="R21" s="6">
+        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P21*$Q21)/(SUM($P$20:$P$25)-$P21)</f>
+        <v>1.8095369409782438</v>
+      </c>
+      <c r="S21" s="1">
+        <f ca="1">($D$23*$K21+$R21*$L21)/SUM($K21,$L21)</f>
+        <v>3.6411511434428627</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.744808978881071</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18654383812824182</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.931352817009312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1">
+        <f ca="1">SUM($T$20:$T$25)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="H22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5053763440860057E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3.0410886515065001</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6.0498204394025796</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22:M25" si="6">1/SUM($K22,$L22)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="5"/>
+        <v>2.304766805120797</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6">
+        <f ca="1">$I22+($S22-$I22)*SUM($N22,$J22)/SUM($N22,$J22,$M22)</f>
+        <v>1.7787023335718357</v>
+      </c>
+      <c r="R22" s="6">
+        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P22*$Q22)/(SUM($P$20:$P$25)-$P22)</f>
+        <v>1.8095369409782438</v>
+      </c>
+      <c r="S22" s="1">
+        <f ca="1">($D$23*$K22+$R22*$L22)/SUM($K22,$L22)</f>
+        <v>3.6411511434428627</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.744808978881071</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18654383812824182</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.931352817009312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <f ca="1">$D$23+($D$21-$D$22)/$D$20</f>
+        <v>7.2848913657744978</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="H23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f>1/4.65-SUM($M23,$N23)</f>
+        <v>6.5053763440860057E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3.0410886515065001</v>
+      </c>
+      <c r="L23" s="1">
+        <v>6.0498204394025796</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="5"/>
+        <v>2.304766805120797</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6">
+        <f ca="1">$I23+($S23-$I23)*SUM($N23,$J23)/SUM($N23,$J23,$M23)</f>
+        <v>1.7787023335718357</v>
+      </c>
+      <c r="R23" s="6">
+        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P23*$Q23)/(SUM($P$20:$P$25)-$P23)</f>
+        <v>1.8095369409782438</v>
+      </c>
+      <c r="S23" s="1">
+        <f ca="1">($D$23*$K23+$R23*$L23)/SUM($K23,$L23)</f>
+        <v>3.6411511434428627</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.744808978881075</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18654383812824182</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.931352817009316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="H24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f>0.012/0.16</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3.0410886515065001</v>
+      </c>
+      <c r="L24" s="1">
+        <v>6.0498204394025796</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O24" s="1">
+        <f>1/(1/$K24+$J24+$N24)</f>
+        <v>2.2531169033111458</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" ref="Q24:Q25" ca="1" si="7">$I24+($S24-$I24)*SUM($N24,$J24)/SUM($N24,$J24,$M24)</f>
+        <v>1.8557888520878567</v>
+      </c>
+      <c r="R24" s="6">
+        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P24*$Q24)/(SUM($P$20:$P$25)-$P24)</f>
+        <v>1.7941196372750396</v>
+      </c>
+      <c r="S24" s="1">
+        <f ca="1">($D$23*$K24+$R24*$L24)/SUM($K24,$L24)</f>
+        <v>3.6308912323458093</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.510382042237858</v>
+      </c>
+      <c r="U24" s="1">
+        <f ca="1">($R24-$Q24)*$L24</f>
+        <v>-0.37308767625648898</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.137294365981369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="H25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="J25" s="1">
+        <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="K25" s="1">
         <v>3.0410886515065001</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="L25" s="1">
         <v>6.0498204394025796</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="M25" s="1">
+        <f t="shared" si="6"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="N25" s="1">
         <v>0.04</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <f>1/(1/$D$4+$D$3+$D$7)</f>
+      <c r="O25" s="1">
+        <f t="shared" si="5"/>
         <v>2.2531169033111458</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <f>$D$8*$D$9</f>
-        <v>13.518701419866876</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1" t="s">
+      <c r="P25" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <v>31.573523873289901</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <f ca="1">($D$12*$D$4+$D$14*$D$5)/($D$4+$D$5)</f>
-        <v>16.006239075601698</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1">
-        <f ca="1">$D$2+($D$13-$D$2)*($D$3+$D$7)/($D$6+$D$3+$D$7)</f>
-        <v>8.1809666386408679</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1">
-        <f ca="1">($D$13-$D$14)/($D$4+$D$5)</f>
-        <v>0.86077996806569246</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1">
-        <f>$D$10*($D$12-$D$2)-$D$11</f>
-        <v>426.83304201604489</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>37</v>
+      <c r="Q25" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.8557888520878567</v>
+      </c>
+      <c r="R25" s="6">
+        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P25*$Q25)/(SUM($P$20:$P$25)-$P25)</f>
+        <v>1.7941196372750396</v>
+      </c>
+      <c r="S25" s="1">
+        <f ca="1">($D$23*$K25+$R25*$L25)/SUM($K25,$L25)</f>
+        <v>3.6308912323458093</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.510382042237858</v>
+      </c>
+      <c r="U25" s="1">
+        <f ca="1">($R25-$Q25)*$L25</f>
+        <v>-0.37308767625648898</v>
+      </c>
+      <c r="V25" s="1">
+        <f ca="1">SUM($T25,$U25)</f>
+        <v>16.137294365981369</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A16"/>
+  <mergeCells count="5">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/test_singlezone/steady_03/正解値.xlsx
+++ b/test/test_singlezone/steady_03/正解値.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88583C7-4A2F-4C14-BF41-9E0D1910848E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7014B9-B6D3-4AEE-81A3-3E06D2084F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="正解値" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -150,10 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W/㎡</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>単位</t>
     <rPh sb="0" eb="1">
       <t>ヒトエ</t>
@@ -223,16 +220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熱流</t>
-    <rPh sb="0" eb="1">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>リュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>室内側表面熱伝達抵抗</t>
     <rPh sb="0" eb="2">
       <t>シツナイ</t>
@@ -254,19 +241,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>テイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表面熱流</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>リュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -330,19 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平均放射温度</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作用温度</t>
     <rPh sb="0" eb="4">
       <t>サヨウオンド</t>
@@ -652,77 +613,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作用温度は、室空気温度、平均放射温度、対流熱伝達率、放射熱伝達率より求める。</t>
-    <rPh sb="0" eb="2">
-      <t>サヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>クウキオンド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平均放射温度は、当該壁体以外の壁体の面積加重平均温度とする。</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘキタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘキタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カジュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>壁</t>
     <rPh sb="0" eb="1">
       <t>カベ</t>
@@ -841,6 +731,96 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微小球温度</t>
+    <rPh sb="0" eb="2">
+      <t>ビショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作用温度は、室空気温度、微小球温度、対流熱伝達率、放射熱伝達率より求める。</t>
+    <rPh sb="0" eb="2">
+      <t>サヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>クウキオンド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微小球温度は、Σ（面積×放射熱伝達率×表面温度）÷Σ（面積×放射熱伝達率）とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ビショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>リツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1288,12 +1268,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="19" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane xSplit="9" ySplit="20" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1305,92 +1285,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -1399,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1417,27 +1397,24 @@
         <v>11</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1451,52 +1428,49 @@
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="Q19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
       <c r="B20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -1510,7 +1484,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I20" s="1">
         <f>$D$19</f>
@@ -1541,31 +1515,27 @@
         <v>1</v>
       </c>
       <c r="Q20" s="6">
-        <f ca="1">$I20+($S20-$I20)*SUM($N20,$J20)/SUM($N20,$J20,$M20)</f>
-        <v>1.7787023335718357</v>
-      </c>
-      <c r="R20" s="6">
-        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P20*$Q20)/(SUM($P$20:$P$25)-$P20)</f>
-        <v>1.8095369409782438</v>
+        <f ca="1">$I20+($R20-$I20)*SUM($N20,$J20)/SUM($N20,$J20,$M20)</f>
+        <v>1.7770816491491759</v>
+      </c>
+      <c r="R20" s="1">
+        <f ca="1">($D$23*$K20+$D$24*$L20)/SUM($K20,$L20)</f>
+        <v>3.637833468065085</v>
       </c>
       <c r="S20" s="1">
-        <f ca="1">($D$23*$K20+$R20*$L20)/SUM($K20,$L20)</f>
-        <v>3.6411511434428627</v>
+        <f t="shared" ref="S20:S25" ca="1" si="1">($D$23-$Q20)*$K20</f>
+        <v>16.75004871201369</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" ref="T20:T25" ca="1" si="1">($D$23-$Q20)*$K20</f>
-        <v>16.744808978881071</v>
+        <f ca="1">($D$24-$Q20)*$L20</f>
+        <v>0.16587691449455361</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" ref="U20:U23" ca="1" si="2">($R20-$Q20)*$L20</f>
-        <v>0.18654383812824182</v>
-      </c>
-      <c r="V20" s="1">
-        <f t="shared" ref="V20:V24" ca="1" si="3">SUM($T20,$U20)</f>
-        <v>16.931352817009312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+        <f t="shared" ref="U20:U24" ca="1" si="2">SUM($S20,$T20)</f>
+        <v>16.915925626508244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
@@ -1579,10 +1549,10 @@
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:I25" si="4">$D$19</f>
+        <f t="shared" ref="I21:I25" si="3">$D$19</f>
         <v>0</v>
       </c>
       <c r="J21" s="1">
@@ -1603,60 +1573,56 @@
         <v>0.04</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" ref="O21:O25" si="5">1/(1/$K21+$J21+$N21)</f>
+        <f t="shared" ref="O21:O25" si="4">1/(1/$K21+$J21+$N21)</f>
         <v>2.304766805120797</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
       </c>
       <c r="Q21" s="6">
-        <f ca="1">$I21+($S21-$I21)*SUM($N21,$J21)/SUM($N21,$J21,$M21)</f>
-        <v>1.7787023335718357</v>
-      </c>
-      <c r="R21" s="6">
-        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P21*$Q21)/(SUM($P$20:$P$25)-$P21)</f>
-        <v>1.8095369409782438</v>
+        <f ca="1">$I21+($R21-$I21)*SUM($N21,$J21)/SUM($N21,$J21,$M21)</f>
+        <v>1.7770816491491759</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" ref="R21:R25" ca="1" si="5">($D$23*$K21+$D$24*$L21)/SUM($K21,$L21)</f>
+        <v>3.637833468065085</v>
       </c>
       <c r="S21" s="1">
-        <f ca="1">($D$23*$K21+$R21*$L21)/SUM($K21,$L21)</f>
-        <v>3.6411511434428627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16.75004871201369</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.744808978881071</v>
+        <f t="shared" ref="T21:T25" ca="1" si="6">($D$24-$Q21)*$L21</f>
+        <v>0.16587691449455361</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18654383812824182</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.931352817009312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
+        <v>16.915925626508244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1">
-        <f ca="1">SUM($T$20:$T$25)</f>
-        <v>99.999999999999986</v>
+        <f ca="1">SUM($S$20:$S$25)</f>
+        <v>99.999999999988532</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J22" s="1">
@@ -1670,65 +1636,61 @@
         <v>6.0498204394025796</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" ref="M22:M25" si="6">1/SUM($K22,$L22)</f>
+        <f t="shared" ref="M22:M25" si="7">1/SUM($K22,$L22)</f>
         <v>0.11000000000000014</v>
       </c>
       <c r="N22" s="1">
         <v>0.04</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.304766805120797</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
       </c>
       <c r="Q22" s="6">
-        <f ca="1">$I22+($S22-$I22)*SUM($N22,$J22)/SUM($N22,$J22,$M22)</f>
-        <v>1.7787023335718357</v>
-      </c>
-      <c r="R22" s="6">
-        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P22*$Q22)/(SUM($P$20:$P$25)-$P22)</f>
-        <v>1.8095369409782438</v>
+        <f ca="1">$I22+($R22-$I22)*SUM($N22,$J22)/SUM($N22,$J22,$M22)</f>
+        <v>1.7770816491491759</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.637833468065085</v>
       </c>
       <c r="S22" s="1">
-        <f ca="1">($D$23*$K22+$R22*$L22)/SUM($K22,$L22)</f>
-        <v>3.6411511434428627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16.75004871201369</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.744808978881071</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.16587691449455361</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18654383812824182</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.931352817009312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
+        <v>16.915925626508244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">$D$23+($D$21-$D$22)/$D$20</f>
-        <v>7.2848913657744978</v>
+        <v>7.2849936607633596</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1"/>
       <c r="H23" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J23" s="1">
@@ -1742,60 +1704,59 @@
         <v>6.0498204394025796</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="N23" s="1">
         <v>0.04</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.304766805120797</v>
       </c>
       <c r="P23" s="1">
         <v>1</v>
       </c>
       <c r="Q23" s="6">
-        <f ca="1">$I23+($S23-$I23)*SUM($N23,$J23)/SUM($N23,$J23,$M23)</f>
-        <v>1.7787023335718357</v>
-      </c>
-      <c r="R23" s="6">
-        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P23*$Q23)/(SUM($P$20:$P$25)-$P23)</f>
-        <v>1.8095369409782438</v>
+        <f ca="1">$I23+($R23-$I23)*SUM($N23,$J23)/SUM($N23,$J23,$M23)</f>
+        <v>1.7770816491493728</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6378334680653648</v>
       </c>
       <c r="S23" s="1">
-        <f ca="1">($D$23*$K23+$R23*$L23)/SUM($K23,$L23)</f>
-        <v>3.6411511434428627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16.750048712015634</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.744808978881075</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.16587691449336209</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18654383812824182</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.931352817009316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
+        <v>16.915925626508997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D24" s="1">
+        <f ca="1">SUMPRODUCT($L$20:$L$25,$P$20:$P$25,$Q$20:$Q$25)/SUMPRODUCT($L$20:$L$25,$P$20:$P$25)</f>
+        <v>1.8045001347325791</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1"/>
       <c r="H24" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="1">
@@ -1809,7 +1770,7 @@
         <v>6.0498204394025796</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="N24" s="1">
@@ -1823,48 +1784,32 @@
         <v>1</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" ref="Q24:Q25" ca="1" si="7">$I24+($S24-$I24)*SUM($N24,$J24)/SUM($N24,$J24,$M24)</f>
-        <v>1.8557888520878567</v>
-      </c>
-      <c r="R24" s="6">
-        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P24*$Q24)/(SUM($P$20:$P$25)-$P24)</f>
-        <v>1.7941196372750396</v>
+        <f ca="1">$I24+($R24-$I24)*SUM($N24,$J24)/SUM($N24,$J24,$M24)</f>
+        <v>1.8593371058999311</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6378334680659572</v>
       </c>
       <c r="S24" s="1">
-        <f ca="1">($D$23*$K24+$R24*$L24)/SUM($K24,$L24)</f>
-        <v>3.6308912323458093</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16.499902575967024</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.510382042237858</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.33175382900317596</v>
       </c>
       <c r="U24" s="1">
-        <f ca="1">($R24-$Q24)*$L24</f>
-        <v>-0.37308767625648898</v>
-      </c>
-      <c r="V24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.137294365981369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.168148746963848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="H25" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J25" s="1">
@@ -1878,51 +1823,47 @@
         <v>6.0498204394025796</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="N25" s="1">
         <v>0.04</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2531169033111458</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.8557888520878567</v>
-      </c>
-      <c r="R25" s="6">
-        <f ca="1">(SUMPRODUCT($P$20:$P$25,$Q$20:$Q$25)-$P25*$Q25)/(SUM($P$20:$P$25)-$P25)</f>
-        <v>1.7941196372750396</v>
+        <f ca="1">$I25+($R25-$I25)*SUM($N25,$J25)/SUM($N25,$J25,$M25)</f>
+        <v>1.8593371058999311</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6378334680659572</v>
       </c>
       <c r="S25" s="1">
-        <f ca="1">($D$23*$K25+$R25*$L25)/SUM($K25,$L25)</f>
-        <v>3.6308912323458093</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16.499902575967024</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.510382042237858</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.33175382900317596</v>
       </c>
       <c r="U25" s="1">
-        <f ca="1">($R25-$Q25)*$L25</f>
-        <v>-0.37308767625648898</v>
-      </c>
-      <c r="V25" s="1">
-        <f ca="1">SUM($T25,$U25)</f>
-        <v>16.137294365981369</v>
+        <f ca="1">SUM($S25,$T25)</f>
+        <v>16.168148746963848</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/test_singlezone/steady_03/正解値.xlsx
+++ b/test/test_singlezone/steady_03/正解値.xlsx
@@ -5,21 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7014B9-B6D3-4AEE-81A3-3E06D2084F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798CA09-2680-4F33-8C31-CF4F1FD01DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="正解値" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -829,6 +836,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000"/>
+    <numFmt numFmtId="182" formatCode="0.000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,9 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,6 +962,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,16 +1289,23 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="20" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" customWidth="1"/>
     <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -1354,11 +1379,11 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +1435,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1468,8 +1493,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1477,7 +1502,7 @@
       </c>
       <c r="D20" s="1">
         <f>SUMPRODUCT($O$20:$O$25,$P$20:$P$25)</f>
-        <v>13.725301027105479</v>
+        <v>13.725592139031441</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1495,10 +1520,10 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="K20" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L20" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M20" s="1">
         <f>1/SUM($K20,$L20)</f>
@@ -1509,35 +1534,35 @@
       </c>
       <c r="O20" s="1">
         <f>1/(1/$K20+$J20+$N20)</f>
-        <v>2.304766805120797</v>
+        <v>2.3048160512773572</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="6">
-        <f ca="1">$I20+($R20-$I20)*SUM($N20,$J20)/SUM($N20,$J20,$M20)</f>
-        <v>1.7770816491491759</v>
+      <c r="Q20" s="12">
+        <f t="shared" ref="Q20:Q25" ca="1" si="1">$I20+($R20-$I20)*SUM($N20,$J20)/SUM($N20,$J20,$M20)</f>
+        <v>1.7770816495325399</v>
       </c>
       <c r="R20" s="1">
         <f ca="1">($D$23*$K20+$D$24*$L20)/SUM($K20,$L20)</f>
-        <v>3.637833468065085</v>
+        <v>3.6378334685956495</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" ref="S20:S25" ca="1" si="1">($D$23-$Q20)*$K20</f>
-        <v>16.75004871201369</v>
+        <f t="shared" ref="S20:S25" ca="1" si="2">($D$23-$Q20)*$K20</f>
+        <v>16.75005106324441</v>
       </c>
       <c r="T20" s="1">
         <f ca="1">($D$24-$Q20)*$L20</f>
-        <v>0.16587691449455361</v>
-      </c>
-      <c r="U20" s="1">
-        <f t="shared" ref="U20:U24" ca="1" si="2">SUM($S20,$T20)</f>
-        <v>16.915925626508244</v>
+        <v>0.16587456460201638</v>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" ref="U20:U24" ca="1" si="3">SUM($S20,$T20)</f>
+        <v>16.915925627846427</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1577,7 @@
         <v>43</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:I25" si="3">$D$19</f>
+        <f t="shared" ref="I21:I25" si="4">$D$19</f>
         <v>0</v>
       </c>
       <c r="J21" s="1">
@@ -1560,10 +1585,10 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="K21" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L21" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M21" s="1">
         <f>1/SUM($K21,$L21)</f>
@@ -1573,35 +1598,35 @@
         <v>0.04</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" ref="O21:O25" si="4">1/(1/$K21+$J21+$N21)</f>
-        <v>2.304766805120797</v>
+        <f t="shared" ref="O21:O25" si="5">1/(1/$K21+$J21+$N21)</f>
+        <v>2.3048160512773572</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="6">
-        <f ca="1">$I21+($R21-$I21)*SUM($N21,$J21)/SUM($N21,$J21,$M21)</f>
-        <v>1.7770816491491759</v>
+      <c r="Q21" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7770816495325399</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" ref="R21:R25" ca="1" si="5">($D$23*$K21+$D$24*$L21)/SUM($K21,$L21)</f>
-        <v>3.637833468065085</v>
+        <f t="shared" ref="R21:R25" ca="1" si="6">($D$23*$K21+$D$24*$L21)/SUM($K21,$L21)</f>
+        <v>3.6378334685956495</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.75004871201369</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.75005106324441</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" ref="T21:T25" ca="1" si="6">($D$24-$Q21)*$L21</f>
-        <v>0.16587691449455361</v>
-      </c>
-      <c r="U21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.915925626508244</v>
+        <f t="shared" ref="T21:T25" ca="1" si="7">($D$24-$Q21)*$L21</f>
+        <v>0.16587456460201638</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.915925627846427</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1612,7 +1637,7 @@
       </c>
       <c r="D22" s="1">
         <f ca="1">SUM($S$20:$S$25)</f>
-        <v>99.999999999988532</v>
+        <v>100.00000000214152</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2</v>
@@ -1622,7 +1647,7 @@
         <v>43</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="1">
@@ -1630,57 +1655,57 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="K22" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L22" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" ref="M22:M25" si="7">1/SUM($K22,$L22)</f>
+        <f t="shared" ref="M22:M25" si="8">1/SUM($K22,$L22)</f>
         <v>0.11000000000000014</v>
       </c>
       <c r="N22" s="1">
         <v>0.04</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="4"/>
-        <v>2.304766805120797</v>
+        <f t="shared" si="5"/>
+        <v>2.3048160512773572</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
       </c>
-      <c r="Q22" s="6">
-        <f ca="1">$I22+($R22-$I22)*SUM($N22,$J22)/SUM($N22,$J22,$M22)</f>
-        <v>1.7770816491491759</v>
+      <c r="Q22" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7770816495325399</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.637833468065085</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.6378334685956495</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.75004871201369</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.75005106324441</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.16587691449455361</v>
-      </c>
-      <c r="U22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.915925626508244</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.16587456460201638</v>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.915925627846427</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="11">
         <f ca="1">$D$23+($D$21-$D$22)/$D$20</f>
-        <v>7.2849936607633596</v>
+        <v>7.2848391506779633</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
@@ -1690,7 +1715,7 @@
         <v>43</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23" s="1">
@@ -1698,55 +1723,55 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="K23" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L23" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="N23" s="1">
         <v>0.04</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="4"/>
-        <v>2.304766805120797</v>
+        <f t="shared" si="5"/>
+        <v>2.3048160512773572</v>
       </c>
       <c r="P23" s="1">
         <v>1</v>
       </c>
-      <c r="Q23" s="6">
-        <f ca="1">$I23+($R23-$I23)*SUM($N23,$J23)/SUM($N23,$J23,$M23)</f>
-        <v>1.7770816491493728</v>
+      <c r="Q23" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7770816494948294</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.6378334680653648</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.6378334685434544</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.750048712015634</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.750051062884598</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.16587691449336209</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.915925626508997</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.16587456483015489</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.915925627714753</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="1">
         <f ca="1">SUMPRODUCT($L$20:$L$25,$P$20:$P$25,$Q$20:$Q$25)/SUMPRODUCT($L$20:$L$25,$P$20:$P$25)</f>
-        <v>1.8045001347325791</v>
+        <v>1.8045001351155401</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -1756,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J24" s="1">
@@ -1764,13 +1789,13 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K24" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L24" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="N24" s="1">
@@ -1778,30 +1803,30 @@
       </c>
       <c r="O24" s="1">
         <f>1/(1/$K24+$J24+$N24)</f>
-        <v>2.2531169033111458</v>
+        <v>2.2531639669610057</v>
       </c>
       <c r="P24" s="1">
         <v>1</v>
       </c>
-      <c r="Q24" s="6">
-        <f ca="1">$I24+($R24-$I24)*SUM($N24,$J24)/SUM($N24,$J24,$M24)</f>
-        <v>1.8593371058999311</v>
+      <c r="Q24" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8593371061711084</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.6378334680659572</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.6378334684396303</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.499902575967024</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.499897874543862</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.33175382900317596</v>
-      </c>
-      <c r="U24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.168148746963848</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.33174912664823053</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.168148747895632</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.45">
@@ -1809,7 +1834,7 @@
         <v>37</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J25" s="1">
@@ -1817,44 +1842,44 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K25" s="1">
-        <v>3.0410886515065001</v>
+        <v>3.04117439071827</v>
       </c>
       <c r="L25" s="1">
-        <v>6.0498204394025796</v>
+        <v>6.0497347001908102</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="N25" s="1">
         <v>0.04</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2531169033111458</v>
+        <f t="shared" si="5"/>
+        <v>2.2531639669610057</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
       </c>
-      <c r="Q25" s="6">
-        <f ca="1">$I25+($R25-$I25)*SUM($N25,$J25)/SUM($N25,$J25,$M25)</f>
-        <v>1.8593371058999311</v>
+      <c r="Q25" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8593371061711084</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.6378334680659572</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.6378334684396303</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.499902575967024</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.499897874543862</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.33175382900317596</v>
-      </c>
-      <c r="U25" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.33174912664823053</v>
+      </c>
+      <c r="U25" s="10">
         <f ca="1">SUM($S25,$T25)</f>
-        <v>16.168148746963848</v>
+        <v>16.168148747895632</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_singlezone/steady_03/正解値.xlsx
+++ b/test/test_singlezone/steady_03/正解値.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798CA09-2680-4F33-8C31-CF4F1FD01DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12943EC8-8603-44FF-840E-446202EDE0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="正解値" sheetId="1" r:id="rId1"/>
+    <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
+    <sheet name="正解値" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
+  <calcPr calcId="181029" iterate="1" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -829,6 +822,107 @@
     <rPh sb="35" eb="36">
       <t>リツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永田の方法</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積比</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>微小球から面を見た形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>ビショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>放射率</t>
+    <rPh sb="0" eb="3">
+      <t>ホウシャリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>放射熱伝達率[W/(m2･K)]</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ネツデンタツリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f_bar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>平均温度</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>放射率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -836,12 +930,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.00000000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000000"/>
-    <numFmt numFmtId="182" formatCode="0.000000000000000"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00000000000"/>
+    <numFmt numFmtId="177" formatCode="0.000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,13 +953,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -927,12 +1042,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +1072,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,18 +1093,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{6C55B18A-A73A-4975-95C7-BD7C38290D6A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,6 +1133,114 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1526572" cy="558102"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3A47E7-BC84-4AEE-8BD8-E9CB2B626033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5280660" y="1600200"/>
+          <a:ext cx="1526572" cy="558102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>D9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>となるように</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>H2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を収束計算で求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1285,11 +1539,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DDA0E0-71F3-430C-BDDD-8C5D3206CC19}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="15"/>
+    <col min="6" max="6" width="12.8984375" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1.199999999980782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="str">
+        <f>正解値!$H20</f>
+        <v>壁</v>
+      </c>
+      <c r="B3" s="18">
+        <f>正解値!$J20</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E3" s="14">
+        <f>正解値!$K20</f>
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="20">
+        <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="str">
+        <f>正解値!$H21</f>
+        <v>壁</v>
+      </c>
+      <c r="B4" s="18">
+        <f>正解値!$J21</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E4" s="14">
+        <f>正解値!$K21</f>
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="str">
+        <f>正解値!$H22</f>
+        <v>壁</v>
+      </c>
+      <c r="B5" s="18">
+        <f>正解値!$J22</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E5" s="14">
+        <f>正解値!$K22</f>
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="str">
+        <f>正解値!$H23</f>
+        <v>壁</v>
+      </c>
+      <c r="B6" s="18">
+        <f>正解値!$J23</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E6" s="14">
+        <f>正解値!$K23</f>
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="str">
+        <f>正解値!$H24</f>
+        <v>床</v>
+      </c>
+      <c r="B7" s="18">
+        <f>正解値!$J24</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E7" s="14">
+        <f>正解値!$K24</f>
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="str">
+        <f>正解値!$H25</f>
+        <v>屋根</v>
+      </c>
+      <c r="B8" s="18">
+        <f>正解値!$J25</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.16666666667000313</v>
+      </c>
+      <c r="E8" s="14">
+        <f>正解値!$K25</f>
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="2"/>
+        <v>6.0497346947957293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="18">
+        <f>SUM(B3:B8)</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="21">
+        <f>SUM(D3:D8)</f>
+        <v>1.0000000000200189</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1298,14 +1791,16 @@
     <col min="4" max="4" width="28.8984375" customWidth="1"/>
     <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -1378,12 +1873,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1398,44 +1893,47 @@
         <v>29</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1456,34 +1954,34 @@
         <v>23</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>31</v>
@@ -1491,18 +1989,21 @@
       <c r="U19" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
+      <c r="V19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1">
-        <f>SUMPRODUCT($O$20:$O$25,$P$20:$P$25)</f>
-        <v>13.725592139031441</v>
+        <f>SUMPRODUCT($Q$20:$Q$25,$J$20:$J$25)</f>
+        <v>13.725592140418566</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1516,53 +2017,57 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J22" si="0">1/4.65-SUM($M20,$N20)</f>
-        <v>6.5053763440860057E-2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L20" s="1">
+        <f>熱伝達率!$F3</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M20" s="1">
+        <f>1/$N20-$L20</f>
         <v>3.04117439071827</v>
       </c>
-      <c r="L20" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M20" s="1">
-        <f>1/SUM($K20,$L20)</f>
-        <v>0.11000000000000014</v>
-      </c>
       <c r="N20" s="1">
+        <v>0.11000000006528061</v>
+      </c>
+      <c r="O20" s="1">
         <v>0.04</v>
       </c>
-      <c r="O20" s="1">
-        <f>1/(1/$K20+$J20+$N20)</f>
-        <v>2.3048160512773572</v>
-      </c>
       <c r="P20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="12">
-        <f t="shared" ref="Q20:Q25" ca="1" si="1">$I20+($R20-$I20)*SUM($N20,$J20)/SUM($N20,$J20,$M20)</f>
-        <v>1.7770816495325399</v>
-      </c>
-      <c r="R20" s="1">
-        <f ca="1">($D$23*$K20+$D$24*$L20)/SUM($K20,$L20)</f>
-        <v>3.6378334685956495</v>
+        <f t="shared" ref="P20:P22" si="0">1/4.65-SUM($N20,$O20)</f>
+        <v>6.5053763375579582E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>1/(1/$M20+$P20+$O20)</f>
+        <v>2.3048160516241385</v>
+      </c>
+      <c r="R20" s="9">
+        <f ca="1">$I20+($S20-$I20)*SUM($O20,$P20)/SUM($O20,$P20,$N20)</f>
+        <v>1.7770816482136154</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" ref="S20:S25" ca="1" si="2">($D$23-$Q20)*$K20</f>
-        <v>16.75005106324441</v>
+        <f ca="1">($D$23*$M20+$D$24*$L20)/SUM($M20,$L20)</f>
+        <v>3.6378334684092053</v>
       </c>
       <c r="T20" s="1">
-        <f ca="1">($D$24-$Q20)*$L20</f>
-        <v>0.16587456460201638</v>
-      </c>
-      <c r="U20" s="10">
-        <f t="shared" ref="U20:U24" ca="1" si="3">SUM($S20,$T20)</f>
-        <v>16.915925627846427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+        <f ca="1">($D$23-$R20)*$M20</f>
+        <v>16.750051063435578</v>
+      </c>
+      <c r="U20" s="1">
+        <f ca="1">($D$24-$R20)*$L20</f>
+        <v>0.16587456466722517</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" ref="V20:V24" ca="1" si="1">SUM($T20,$U20)</f>
+        <v>16.915925628102801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1577,56 +2082,60 @@
         <v>43</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:I25" si="4">$D$19</f>
+        <f t="shared" ref="I21:I25" si="2">$D$19</f>
         <v>0</v>
       </c>
       <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L21" s="1">
+        <f>熱伝達率!$F4</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ref="M21:M25" si="3">1/$N21-$L21</f>
+        <v>3.04117439071827</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.11000000006528061</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P21" s="1">
         <f t="shared" si="0"/>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L21" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M21" s="1">
-        <f>1/SUM($K21,$L21)</f>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" ref="O21:O25" si="5">1/(1/$K21+$J21+$N21)</f>
-        <v>2.3048160512773572</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="12">
+        <v>6.5053763375579582E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>1/(1/$M21+$P21+$O21)</f>
+        <v>2.3048160516241385</v>
+      </c>
+      <c r="R21" s="9">
+        <f ca="1">$I21+($S21-$I21)*SUM($O21,$P21)/SUM($O21,$P21,$N21)</f>
+        <v>1.7770816482136154</v>
+      </c>
+      <c r="S21" s="1">
+        <f ca="1">($D$23*$M21+$D$24*$L21)/SUM($M21,$L21)</f>
+        <v>3.6378334684092053</v>
+      </c>
+      <c r="T21" s="1">
+        <f ca="1">($D$23-$R21)*$M21</f>
+        <v>16.750051063435578</v>
+      </c>
+      <c r="U21" s="1">
+        <f ca="1">($D$24-$R21)*$L21</f>
+        <v>0.16587456466722517</v>
+      </c>
+      <c r="V21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7770816495325399</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" ref="R21:R25" ca="1" si="6">($D$23*$K21+$D$24*$L21)/SUM($K21,$L21)</f>
-        <v>3.6378334685956495</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.75005106324441</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" ref="T21:T25" ca="1" si="7">($D$24-$Q21)*$L21</f>
-        <v>0.16587456460201638</v>
-      </c>
-      <c r="U21" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.915925627846427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
+        <v>16.915925628102801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1636,8 +2145,8 @@
         <v>35</v>
       </c>
       <c r="D22" s="1">
-        <f ca="1">SUM($S$20:$S$25)</f>
-        <v>100.00000000214152</v>
+        <f ca="1">SUM($T$20:$T$25)</f>
+        <v>100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2</v>
@@ -1647,239 +2156,255 @@
         <v>43</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L22" s="1">
+        <f>熱伝達率!$F5</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="3"/>
+        <v>3.04117439071827</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.11000000006528061</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P22" s="1">
         <f t="shared" si="0"/>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L22" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" ref="M22:M25" si="8">1/SUM($K22,$L22)</f>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="5"/>
-        <v>2.3048160512773572</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="12">
+        <v>6.5053763375579582E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>1/(1/$M22+$P22+$O22)</f>
+        <v>2.3048160516241385</v>
+      </c>
+      <c r="R22" s="9">
+        <f ca="1">$I22+($S22-$I22)*SUM($O22,$P22)/SUM($O22,$P22,$N22)</f>
+        <v>1.7770816482136154</v>
+      </c>
+      <c r="S22" s="1">
+        <f ca="1">($D$23*$M22+$D$24*$L22)/SUM($M22,$L22)</f>
+        <v>3.6378334684092053</v>
+      </c>
+      <c r="T22" s="1">
+        <f ca="1">($D$23-$R22)*$M22</f>
+        <v>16.750051063435578</v>
+      </c>
+      <c r="U22" s="1">
+        <f ca="1">($D$24-$R22)*$L22</f>
+        <v>0.16587456466722517</v>
+      </c>
+      <c r="V22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7770816495325399</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.6378334685956495</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.75005106324441</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.16587456460201638</v>
-      </c>
-      <c r="U22" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.915925627846427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+        <v>16.915925628102801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <f ca="1">$D$23+($D$21-$D$22)/$D$20</f>
-        <v>7.2848391506779633</v>
+        <v>7.2848391495779223</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <f>1/4.65-SUM($M23,$N23)</f>
-        <v>6.5053763440860057E-2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L23" s="1">
+        <f>熱伝達率!$F6</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="3"/>
         <v>3.04117439071827</v>
       </c>
-      <c r="L23" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.11000000000000014</v>
-      </c>
       <c r="N23" s="1">
+        <v>0.11000000006528061</v>
+      </c>
+      <c r="O23" s="1">
         <v>0.04</v>
       </c>
-      <c r="O23" s="1">
-        <f t="shared" si="5"/>
-        <v>2.3048160512773572</v>
-      </c>
       <c r="P23" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="12">
+        <f>1/4.65-SUM($N23,$O23)</f>
+        <v>6.5053763375579582E-2</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>1/(1/$M23+$P23+$O23)</f>
+        <v>2.3048160516241385</v>
+      </c>
+      <c r="R23" s="9">
+        <f ca="1">$I23+($S23-$I23)*SUM($O23,$P23)/SUM($O23,$P23,$N23)</f>
+        <v>1.7770816482136147</v>
+      </c>
+      <c r="S23" s="1">
+        <f ca="1">($D$23*$M23+$D$24*$L23)/SUM($M23,$L23)</f>
+        <v>3.6378334684092053</v>
+      </c>
+      <c r="T23" s="1">
+        <f ca="1">($D$23-$R23)*$M23</f>
+        <v>16.750051063435581</v>
+      </c>
+      <c r="U23" s="1">
+        <f ca="1">($D$24-$R23)*$L23</f>
+        <v>0.16587456466722919</v>
+      </c>
+      <c r="V23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7770816494948294</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.6378334685434544</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.750051062884598</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.16587456483015489</v>
-      </c>
-      <c r="U23" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.915925627714753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
+        <v>16.915925628102812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="1">
-        <f ca="1">SUMPRODUCT($L$20:$L$25,$P$20:$P$25,$Q$20:$Q$25)/SUMPRODUCT($L$20:$L$25,$P$20:$P$25)</f>
-        <v>1.8045001351155401</v>
+        <f ca="1">SUMPRODUCT($L$20:$L$25,$J$20:$J$25,$R$20:$R$25)/SUMPRODUCT($L$20:$L$25,$J$20:$J$25)</f>
+        <v>1.8045001339878617</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="H24" s="3" t="s">
-        <v>36</v>
+      <c r="H24" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L24" s="1">
+        <f>熱伝達率!$F7</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="3"/>
+        <v>3.04117439071827</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.11000000006528061</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P24" s="1">
         <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K24" s="1">
+      <c r="Q24" s="1">
+        <f>1/(1/$M24+$P24+$O24)</f>
+        <v>2.2531639669610057</v>
+      </c>
+      <c r="R24" s="9">
+        <f ca="1">$I24+($S24-$I24)*SUM($O24,$P24)/SUM($O24,$P24,$N24)</f>
+        <v>1.8593371055363555</v>
+      </c>
+      <c r="S24" s="1">
+        <f ca="1">($D$23*$M24+$D$24*$L24)/SUM($M24,$L24)</f>
+        <v>3.6378334684092049</v>
+      </c>
+      <c r="T24" s="1">
+        <f ca="1">($D$23-$R24)*$M24</f>
+        <v>16.499897873128841</v>
+      </c>
+      <c r="U24" s="1">
+        <f ca="1">($D$24-$R24)*$L24</f>
+        <v>-0.331749129334449</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.168148743794394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="H25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L25" s="1">
+        <f>熱伝達率!$F8</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="3"/>
         <v>3.04117439071827</v>
       </c>
-      <c r="L24" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="8"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="N25" s="1">
+        <v>0.11000000006528061</v>
+      </c>
+      <c r="O25" s="1">
         <v>0.04</v>
       </c>
-      <c r="O24" s="1">
-        <f>1/(1/$K24+$J24+$N24)</f>
-        <v>2.2531639669610057</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8593371061711084</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.6378334684396303</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.499897874543862</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.33174912664823053</v>
-      </c>
-      <c r="U24" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.168148747895632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="H25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="P25" s="1">
         <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K25" s="1">
-        <v>3.04117439071827</v>
-      </c>
-      <c r="L25" s="1">
-        <v>6.0497347001908102</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="8"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q25" s="1">
+        <f>1/(1/$M25+$P25+$O25)</f>
         <v>2.2531639669610057</v>
       </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8593371061711084</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.6378334684396303</v>
+      <c r="R25" s="9">
+        <f ca="1">$I25+($S25-$I25)*SUM($O25,$P25)/SUM($O25,$P25,$N25)</f>
+        <v>1.8593371055363555</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.499897874543862</v>
+        <f ca="1">($D$23*$M25+$D$24*$L25)/SUM($M25,$L25)</f>
+        <v>3.6378334684092049</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.33174912664823053</v>
-      </c>
-      <c r="U25" s="10">
-        <f ca="1">SUM($S25,$T25)</f>
-        <v>16.168148747895632</v>
+        <f ca="1">($D$23-$R25)*$M25</f>
+        <v>16.499897873128841</v>
+      </c>
+      <c r="U25" s="1">
+        <f ca="1">($D$24-$R25)*$L25</f>
+        <v>-0.331749129334449</v>
+      </c>
+      <c r="V25" s="7">
+        <f ca="1">SUM($T25,$U25)</f>
+        <v>16.168148743794394</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_singlezone/steady_03/正解値.xlsx
+++ b/test/test_singlezone/steady_03/正解値.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12943EC8-8603-44FF-840E-446202EDE0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF763E4-6E2E-44B0-BB36-6EE689BE4D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
@@ -451,22 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対流熱伝達率、放射熱伝達率はそれぞれ、Pythonプログラムでの計算結果を使用する。</t>
-    <rPh sb="7" eb="9">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>収束計算の過程において、室空気からの対流熱損失が、内部発熱の設定と差がある場合、（内部発熱ー対流熱損失）/Q値を室温に加算。その際のQ値は室内側表面熱伝達率は対流のみを考慮。</t>
     <rPh sb="0" eb="4">
       <t>シュウソクケイサン</t>
@@ -923,6 +907,58 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放射熱伝達率は永田先生の方法、対流熱伝達率は室内側表面熱伝達抵抗(固定値）と放射熱伝達率より求める。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ネツデンタツリツ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1081,18 +1117,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1116,6 +1140,18 @@
     </xf>
     <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1548,226 +1584,226 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="15"/>
-    <col min="6" max="6" width="12.8984375" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="15"/>
+    <col min="1" max="1" width="19" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="11"/>
+    <col min="6" max="6" width="12.8984375" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="H2" s="13">
         <v>1.199999999980782</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="10" t="str">
         <f>正解値!$H20</f>
         <v>壁</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <f>正解値!$J20</f>
         <v>1</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="15">
         <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <f>正解値!$K20</f>
         <v>0.9</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="str">
+      <c r="A4" s="10" t="str">
         <f>正解値!$H21</f>
         <v>壁</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <f>正解値!$J21</f>
         <v>1</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <f>正解値!$K21</f>
         <v>0.9</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="10" t="str">
         <f>正解値!$H22</f>
         <v>壁</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <f>正解値!$J22</f>
         <v>1</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <f>正解値!$K22</f>
         <v>0.9</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="str">
+      <c r="A6" s="10" t="str">
         <f>正解値!$H23</f>
         <v>壁</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <f>正解値!$J23</f>
         <v>1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="16">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <f>正解値!$K23</f>
         <v>0.9</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="16">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="str">
+      <c r="A7" s="10" t="str">
         <f>正解値!$H24</f>
         <v>床</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <f>正解値!$J24</f>
         <v>1</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <f>正解値!$K24</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="str">
+      <c r="A8" s="10" t="str">
         <f>正解値!$H25</f>
         <v>屋根</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <f>正解値!$J25</f>
         <v>1</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <f>正解値!$K25</f>
         <v>0.9</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="14">
         <f>SUM(B3:B8)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="21">
+      <c r="C9" s="10"/>
+      <c r="D9" s="17">
         <f>SUM(D3:D8)</f>
         <v>1.0000000000200189</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1781,9 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1805,32 +1839,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
@@ -1840,32 +1874,32 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
@@ -1874,11 +1908,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1896,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>22</v>
@@ -1933,7 +1967,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1957,7 +1991,7 @@
         <v>26</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>25</v>
@@ -1994,8 +2028,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2010,7 +2044,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="1">
         <f>$D$19</f>
@@ -2041,33 +2075,33 @@
         <v>6.5053763375579582E-2</v>
       </c>
       <c r="Q20" s="1">
-        <f>1/(1/$M20+$P20+$O20)</f>
+        <f t="shared" ref="Q20:Q25" si="1">1/(1/$M20+$P20+$O20)</f>
         <v>2.3048160516241385</v>
       </c>
       <c r="R20" s="9">
-        <f ca="1">$I20+($S20-$I20)*SUM($O20,$P20)/SUM($O20,$P20,$N20)</f>
-        <v>1.7770816482136154</v>
+        <f t="shared" ref="R20:R25" ca="1" si="2">$I20+($S20-$I20)*SUM($O20,$P20)/SUM($O20,$P20,$N20)</f>
+        <v>1.7770816482136145</v>
       </c>
       <c r="S20" s="1">
-        <f ca="1">($D$23*$M20+$D$24*$L20)/SUM($M20,$L20)</f>
-        <v>3.6378334684092053</v>
+        <f t="shared" ref="S20:S25" ca="1" si="3">($D$23*$M20+$D$24*$L20)/SUM($M20,$L20)</f>
+        <v>3.6378334684092049</v>
       </c>
       <c r="T20" s="1">
-        <f ca="1">($D$23-$R20)*$M20</f>
+        <f t="shared" ref="T20:T25" ca="1" si="4">($D$23-$R20)*$M20</f>
         <v>16.750051063435578</v>
       </c>
       <c r="U20" s="1">
-        <f ca="1">($D$24-$R20)*$L20</f>
-        <v>0.16587456466722517</v>
+        <f t="shared" ref="U20:U25" ca="1" si="5">($D$24-$R20)*$L20</f>
+        <v>0.16587456466722383</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" ref="V20:V24" ca="1" si="1">SUM($T20,$U20)</f>
+        <f t="shared" ref="V20:V24" ca="1" si="6">SUM($T20,$U20)</f>
         <v>16.915925628102801</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2079,10 +2113,10 @@
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:I25" si="2">$D$19</f>
+        <f t="shared" ref="I21:I25" si="7">$D$19</f>
         <v>0</v>
       </c>
       <c r="J21" s="1">
@@ -2096,7 +2130,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" ref="M21:M25" si="3">1/$N21-$L21</f>
+        <f t="shared" ref="M21:M25" si="8">1/$N21-$L21</f>
         <v>3.04117439071827</v>
       </c>
       <c r="N21" s="1">
@@ -2110,32 +2144,32 @@
         <v>6.5053763375579582E-2</v>
       </c>
       <c r="Q21" s="1">
-        <f>1/(1/$M21+$P21+$O21)</f>
+        <f t="shared" si="1"/>
         <v>2.3048160516241385</v>
       </c>
       <c r="R21" s="9">
-        <f ca="1">$I21+($S21-$I21)*SUM($O21,$P21)/SUM($O21,$P21,$N21)</f>
-        <v>1.7770816482136154</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7770816482136145</v>
       </c>
       <c r="S21" s="1">
-        <f ca="1">($D$23*$M21+$D$24*$L21)/SUM($M21,$L21)</f>
-        <v>3.6378334684092053</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.6378334684092049</v>
       </c>
       <c r="T21" s="1">
-        <f ca="1">($D$23-$R21)*$M21</f>
+        <f t="shared" ca="1" si="4"/>
         <v>16.750051063435578</v>
       </c>
       <c r="U21" s="1">
-        <f ca="1">($D$24-$R21)*$L21</f>
-        <v>0.16587456466722517</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16587456466722383</v>
       </c>
       <c r="V21" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>16.915925628102801</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2153,10 +2187,10 @@
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J22" s="1">
@@ -2170,7 +2204,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.04117439071827</v>
       </c>
       <c r="N22" s="1">
@@ -2184,33 +2218,33 @@
         <v>6.5053763375579582E-2</v>
       </c>
       <c r="Q22" s="1">
-        <f>1/(1/$M22+$P22+$O22)</f>
+        <f t="shared" si="1"/>
         <v>2.3048160516241385</v>
       </c>
       <c r="R22" s="9">
-        <f ca="1">$I22+($S22-$I22)*SUM($O22,$P22)/SUM($O22,$P22,$N22)</f>
-        <v>1.7770816482136154</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7770816482136145</v>
       </c>
       <c r="S22" s="1">
-        <f ca="1">($D$23*$M22+$D$24*$L22)/SUM($M22,$L22)</f>
-        <v>3.6378334684092053</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.6378334684092049</v>
       </c>
       <c r="T22" s="1">
-        <f ca="1">($D$23-$R22)*$M22</f>
+        <f t="shared" ca="1" si="4"/>
         <v>16.750051063435578</v>
       </c>
       <c r="U22" s="1">
-        <f ca="1">($D$24-$R22)*$L22</f>
-        <v>0.16587456466722517</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16587456466722383</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>16.915925628102801</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2218,17 +2252,17 @@
       </c>
       <c r="D23" s="8">
         <f ca="1">$D$23+($D$21-$D$22)/$D$20</f>
-        <v>7.2848391495779223</v>
+        <v>7.2848391495779214</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1"/>
       <c r="H23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J23" s="1">
@@ -2242,7 +2276,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.04117439071827</v>
       </c>
       <c r="N23" s="1">
@@ -2256,39 +2290,39 @@
         <v>6.5053763375579582E-2</v>
       </c>
       <c r="Q23" s="1">
-        <f>1/(1/$M23+$P23+$O23)</f>
+        <f t="shared" si="1"/>
         <v>2.3048160516241385</v>
       </c>
       <c r="R23" s="9">
-        <f ca="1">$I23+($S23-$I23)*SUM($O23,$P23)/SUM($O23,$P23,$N23)</f>
-        <v>1.7770816482136147</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7770816482136145</v>
       </c>
       <c r="S23" s="1">
-        <f ca="1">($D$23*$M23+$D$24*$L23)/SUM($M23,$L23)</f>
-        <v>3.6378334684092053</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.6378334684092049</v>
       </c>
       <c r="T23" s="1">
-        <f ca="1">($D$23-$R23)*$M23</f>
-        <v>16.750051063435581</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.750051063435578</v>
       </c>
       <c r="U23" s="1">
-        <f ca="1">($D$24-$R23)*$L23</f>
-        <v>0.16587456466722919</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16587456466722383</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.915925628102812</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>16.915925628102801</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1">
         <f ca="1">SUMPRODUCT($L$20:$L$25,$J$20:$J$25,$R$20:$R$25)/SUMPRODUCT($L$20:$L$25,$J$20:$J$25)</f>
-        <v>1.8045001339878617</v>
+        <v>1.8045001339878612</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -2298,7 +2332,7 @@
         <v>37</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J24" s="1">
@@ -2312,7 +2346,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.04117439071827</v>
       </c>
       <c r="N24" s="1">
@@ -2326,28 +2360,28 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q24" s="1">
-        <f>1/(1/$M24+$P24+$O24)</f>
+        <f t="shared" si="1"/>
         <v>2.2531639669610057</v>
       </c>
       <c r="R24" s="9">
-        <f ca="1">$I24+($S24-$I24)*SUM($O24,$P24)/SUM($O24,$P24,$N24)</f>
-        <v>1.8593371055363555</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8593371055363552</v>
       </c>
       <c r="S24" s="1">
-        <f ca="1">($D$23*$M24+$D$24*$L24)/SUM($M24,$L24)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.6378334684092049</v>
       </c>
       <c r="T24" s="1">
-        <f ca="1">($D$23-$R24)*$M24</f>
+        <f t="shared" ca="1" si="4"/>
         <v>16.499897873128841</v>
       </c>
       <c r="U24" s="1">
-        <f ca="1">($D$24-$R24)*$L24</f>
-        <v>-0.331749129334449</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.33174912933445033</v>
       </c>
       <c r="V24" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.168148743794394</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>16.16814874379439</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -2355,7 +2389,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J25" s="1">
@@ -2369,7 +2403,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.04117439071827</v>
       </c>
       <c r="N25" s="1">
@@ -2383,28 +2417,28 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q25" s="1">
-        <f>1/(1/$M25+$P25+$O25)</f>
+        <f t="shared" si="1"/>
         <v>2.2531639669610057</v>
       </c>
       <c r="R25" s="9">
-        <f ca="1">$I25+($S25-$I25)*SUM($O25,$P25)/SUM($O25,$P25,$N25)</f>
-        <v>1.8593371055363555</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8593371055363552</v>
       </c>
       <c r="S25" s="1">
-        <f ca="1">($D$23*$M25+$D$24*$L25)/SUM($M25,$L25)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.6378334684092049</v>
       </c>
       <c r="T25" s="1">
-        <f ca="1">($D$23-$R25)*$M25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>16.499897873128841</v>
       </c>
       <c r="U25" s="1">
-        <f ca="1">($D$24-$R25)*$L25</f>
-        <v>-0.331749129334449</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.33174912933445033</v>
       </c>
       <c r="V25" s="7">
         <f ca="1">SUM($T25,$U25)</f>
-        <v>16.168148743794394</v>
+        <v>16.16814874379439</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_singlezone/steady_03/正解値.xlsx
+++ b/test/test_singlezone/steady_03/正解値.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF763E4-6E2E-44B0-BB36-6EE689BE4D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBF175-F28F-4B03-B796-052993DCD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
     <sheet name="正解値" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateDelta="1E-10"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -958,6 +967,55 @@
     </rPh>
     <rPh sb="46" eb="47">
       <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人体に対する形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>ジンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人体に対する平均放射温度</t>
+    <rPh sb="0" eb="2">
+      <t>ジンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>℃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等価室温</t>
+    <rPh sb="0" eb="2">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シツオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1017,7 +1075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1077,6 +1135,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1086,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,6 +1223,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1582,18 +1659,18 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="11"/>
-    <col min="6" max="6" width="12.8984375" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="11"/>
+    <col min="2" max="2" width="6.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="11"/>
+    <col min="6" max="6" width="12.875" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1603,7 +1680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>54</v>
@@ -1627,7 +1704,7 @@
         <v>1.199999999980782</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="str">
         <f>正解値!$H20</f>
         <v>壁</v>
@@ -1659,7 +1736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="str">
         <f>正解値!$H21</f>
         <v>壁</v>
@@ -1685,7 +1762,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="str">
         <f>正解値!$H22</f>
         <v>壁</v>
@@ -1711,7 +1788,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="str">
         <f>正解値!$H23</f>
         <v>壁</v>
@@ -1737,7 +1814,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>正解値!$H24</f>
         <v>床</v>
@@ -1763,7 +1840,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="str">
         <f>正解値!$H25</f>
         <v>屋根</v>
@@ -1789,7 +1866,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
@@ -1815,99 +1892,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20:Y25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.8984375" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
@@ -1965,8 +2047,17 @@
       <c r="V18" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
@@ -2026,8 +2117,15 @@
       <c r="V19" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W19" s="1"/>
+      <c r="X19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="21"/>
       <c r="B20" s="19" t="s">
         <v>19</v>
@@ -2098,8 +2196,20 @@
         <f t="shared" ref="V20:V24" ca="1" si="6">SUM($T20,$U20)</f>
         <v>16.915925628102801</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W20" s="1">
+        <f>(1-$W$24)*J20/SUM($J$20:$J$23,$J$25)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="X20" s="23">
+        <f ca="1">SUMPRODUCT(R20:R25,W20:W25)</f>
+        <v>1.8231447043143494</v>
+      </c>
+      <c r="Y20" s="1">
+        <f ca="1">(M20*$D$23+L20*$D$24)*N20</f>
+        <v>3.6378334684092049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="1" t="s">
@@ -2167,8 +2277,16 @@
         <f t="shared" ca="1" si="6"/>
         <v>16.915925628102801</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W21" s="1">
+        <f t="shared" ref="W21:W25" si="9">(1-$W$24)*J21/SUM($J$20:$J$23,$J$25)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" ref="Y21:Y25" ca="1" si="10">(M21*$D$23+L21*$D$24)*N21</f>
+        <v>3.6378334684092049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2241,8 +2359,16 @@
         <f t="shared" ca="1" si="6"/>
         <v>16.915925628102801</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.6378334684092049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
         <v>20</v>
@@ -2313,8 +2439,16 @@
         <f t="shared" ca="1" si="6"/>
         <v>16.915925628102801</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W23" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.6378334684092049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="20"/>
       <c r="C24" s="1" t="s">
@@ -2383,8 +2517,15 @@
         <f t="shared" ca="1" si="6"/>
         <v>16.16814874379439</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W24" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.6378334684092049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="H25" s="6" t="s">
         <v>36</v>
       </c>
@@ -2439,6 +2580,14 @@
       <c r="V25" s="7">
         <f ca="1">SUM($T25,$U25)</f>
         <v>16.16814874379439</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.6378334684092049</v>
       </c>
     </row>
   </sheetData>
